--- a/data.xlsx
+++ b/data.xlsx
@@ -1,86 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\TgBotForStudents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="11595" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Образец" sheetId="1" r:id="rId1"/>
-    <sheet name="Максим" sheetId="2" r:id="rId2"/>
+    <sheet name="Образец" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Максим" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
-  <si>
-    <t>Имя родителя</t>
-  </si>
-  <si>
-    <t>Номер родителя</t>
-  </si>
-  <si>
-    <t>Номер ученика</t>
-  </si>
-  <si>
-    <t>Дата следующего урока</t>
-  </si>
-  <si>
-    <t>Тема последнего урока</t>
-  </si>
-  <si>
-    <t>Дз</t>
-  </si>
-  <si>
-    <t>Уроков оплачено</t>
-  </si>
-  <si>
-    <t>Уроков прошло</t>
-  </si>
-  <si>
-    <t>id ученика</t>
-  </si>
-  <si>
-    <t>Git Hub</t>
-  </si>
-  <si>
-    <t>Dz</t>
-  </si>
-  <si>
-    <t>Мама</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF6897BB"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <color rgb="FF6897BB"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,25 +54,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,144 +431,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col width="13.42578125" customWidth="1" min="1" max="1"/>
+    <col width="15.85546875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="21.140625" customWidth="1" min="4" max="4"/>
+    <col width="19.85546875" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="14.42578125" customWidth="1" min="8" max="8"/>
+    <col width="9.85546875" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="I2">
-        <v>1232131232</v>
-      </c>
-    </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col width="13.42578125" customWidth="1" min="1" max="1"/>
+    <col width="15.85546875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="21.140625" customWidth="1" min="4" max="4"/>
+    <col width="19.85546875" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="14.42578125" customWidth="1" min="8" max="8"/>
+    <col width="9.85546875" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Максим</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>79689560398</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>79689560398</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>10990</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Git Hub</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Фото</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>100</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>15</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1" t="n">
         <v>1737599584</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,41 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\TgBotForStudents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Образец" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Максим" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Образец" sheetId="1" r:id="rId1"/>
+    <sheet name="Максим" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+  <si>
+    <t>Имя родителя</t>
+  </si>
+  <si>
+    <t>Номер родителя</t>
+  </si>
+  <si>
+    <t>Номер ученика</t>
+  </si>
+  <si>
+    <t>Дата следующего урока</t>
+  </si>
+  <si>
+    <t>Тема последнего урока</t>
+  </si>
+  <si>
+    <t>Дз</t>
+  </si>
+  <si>
+    <t>Уроков оплачено</t>
+  </si>
+  <si>
+    <t>Уроков прошло</t>
+  </si>
+  <si>
+    <t>id ученика</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Git Hub</t>
+  </si>
+  <si>
+    <t>Фото</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF6897BB"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-      <color rgb="FF6897BB"/>
-      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,84 +99,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,190 +417,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="13.42578125" customWidth="1" min="1" max="1"/>
-    <col width="15.85546875" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="21.140625" customWidth="1" min="4" max="4"/>
-    <col width="19.85546875" customWidth="1" min="5" max="5"/>
-    <col width="17.28515625" customWidth="1" min="7" max="7"/>
-    <col width="14.42578125" customWidth="1" min="8" max="8"/>
-    <col width="9.85546875" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Имя родителя</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Номер родителя</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Номер ученика</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Дата следующего урока</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Тема последнего урока</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Дз</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Уроков оплачено</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Уроков прошло</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>id ученика</t>
-        </is>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="13.42578125" customWidth="1" min="1" max="1"/>
-    <col width="15.85546875" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="21.140625" customWidth="1" min="4" max="4"/>
-    <col width="19.85546875" customWidth="1" min="5" max="5"/>
-    <col width="17.28515625" customWidth="1" min="7" max="7"/>
-    <col width="14.42578125" customWidth="1" min="8" max="8"/>
-    <col width="9.85546875" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Имя родителя</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Номер родителя</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Номер ученика</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Дата следующего урока</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Тема последнего урока</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Дз</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Уроков оплачено</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Уроков прошло</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>id ученика</t>
-        </is>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Максим</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
         <v>79689560398</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>79689560398</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>10990</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Git Hub</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Фото</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
         <v>100</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>1737599584</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,86 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\TgBotForStudents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Образец" sheetId="1" r:id="rId1"/>
-    <sheet name="Максим" sheetId="2" r:id="rId2"/>
+    <sheet name="Образец" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Максим" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
-  <si>
-    <t>Имя родителя</t>
-  </si>
-  <si>
-    <t>Номер родителя</t>
-  </si>
-  <si>
-    <t>Номер ученика</t>
-  </si>
-  <si>
-    <t>Дата следующего урока</t>
-  </si>
-  <si>
-    <t>Тема последнего урока</t>
-  </si>
-  <si>
-    <t>Дз</t>
-  </si>
-  <si>
-    <t>Уроков оплачено</t>
-  </si>
-  <si>
-    <t>Уроков прошло</t>
-  </si>
-  <si>
-    <t>id ученика</t>
-  </si>
-  <si>
-    <t>Максим</t>
-  </si>
-  <si>
-    <t>Git Hub</t>
-  </si>
-  <si>
-    <t>Фото</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF6897BB"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <color rgb="FF6897BB"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,25 +54,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,52 +431,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col width="13.42578125" customWidth="1" min="1" max="1"/>
+    <col width="15.85546875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="21.140625" customWidth="1" min="4" max="4"/>
+    <col width="19.85546875" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="14.42578125" customWidth="1" min="8" max="8"/>
+    <col width="9.85546875" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Максим</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Максим</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -471,85 +519,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col width="13.42578125" customWidth="1" min="1" max="1"/>
+    <col width="15.85546875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="21.140625" customWidth="1" min="4" max="4"/>
+    <col width="19.85546875" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="14.42578125" customWidth="1" min="8" max="8"/>
+    <col width="9.85546875" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Мама</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>423423</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>79689560398</v>
       </c>
-      <c r="C2">
-        <v>79689560398</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>10990</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Git Hub</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Фото</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>100</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>15</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1" t="n">
         <v>1737599584</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Образец" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Максим" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Максим" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Максим2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -439,94 +439,6 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.42578125" customWidth="1" min="1" max="1"/>
-    <col width="15.85546875" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="21.140625" customWidth="1" min="4" max="4"/>
-    <col width="19.85546875" customWidth="1" min="5" max="5"/>
-    <col width="17.28515625" customWidth="1" min="7" max="7"/>
-    <col width="14.42578125" customWidth="1" min="8" max="8"/>
-    <col width="9.85546875" customWidth="1" min="9" max="9"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Имя родителя</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Номер родителя</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Номер ученика</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Дата следующего урока</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Тема последнего урока</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Дз</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Уроков оплачено</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Уроков прошло</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>id ученика</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Максим</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Максим</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -600,15 +512,19 @@
           <t>423423</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>79689560398</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>10990</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>1.1.1</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Git Hub</t>
+          <t>pads</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -616,11 +532,15 @@
           <t>Фото</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="I2" s="1" t="n">
         <v>1737599584</v>
@@ -630,4 +550,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.42578125" customWidth="1" min="1" max="1"/>
+    <col width="15.85546875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="21.140625" customWidth="1" min="4" max="4"/>
+    <col width="19.85546875" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="14.42578125" customWidth="1" min="8" max="8"/>
+    <col width="9.85546875" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,41 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\TgBotForStudents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Максим" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Максим2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Максим" sheetId="1" r:id="rId1"/>
+    <sheet name="Образец" sheetId="2" r:id="rId2"/>
+    <sheet name="dbdbd 582338838" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+  <si>
+    <t>Имя родителя</t>
+  </si>
+  <si>
+    <t>Номер родителя</t>
+  </si>
+  <si>
+    <t>Номер ученика</t>
+  </si>
+  <si>
+    <t>Дата следующего урока</t>
+  </si>
+  <si>
+    <t>Тема последнего урока</t>
+  </si>
+  <si>
+    <t>Дз</t>
+  </si>
+  <si>
+    <t>Уроков оплачено</t>
+  </si>
+  <si>
+    <t>Уроков прошло</t>
+  </si>
+  <si>
+    <t>id ученика</t>
+  </si>
+  <si>
+    <t>Мама</t>
+  </si>
+  <si>
+    <t>423423</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>pads</t>
+  </si>
+  <si>
+    <t>Фото</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF6897BB"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-      <color rgb="FF6897BB"/>
-      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,84 +112,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,199 +430,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="13.42578125" customWidth="1" min="1" max="1"/>
-    <col width="15.85546875" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="21.140625" customWidth="1" min="4" max="4"/>
-    <col width="19.85546875" customWidth="1" min="5" max="5"/>
-    <col width="17.28515625" customWidth="1" min="7" max="7"/>
-    <col width="14.42578125" customWidth="1" min="8" max="8"/>
-    <col width="9.85546875" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Имя родителя</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Номер родителя</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Номер ученика</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Дата следующего урока</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Тема последнего урока</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Дз</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Уроков оплачено</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Уроков прошло</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>id ученика</t>
-        </is>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Мама</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>423423</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>1.1.1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>pads</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Фото</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="n">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1">
         <v>1737599584</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="13.42578125" customWidth="1" min="1" max="1"/>
-    <col width="15.85546875" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="21.140625" customWidth="1" min="4" max="4"/>
-    <col width="19.85546875" customWidth="1" min="5" max="5"/>
-    <col width="17.28515625" customWidth="1" min="7" max="7"/>
-    <col width="14.42578125" customWidth="1" min="8" max="8"/>
-    <col width="9.85546875" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Имя родителя</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Номер родителя</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Номер ученика</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Дата следующего урока</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Тема последнего урока</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Дз</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Уроков оплачено</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Уроков прошло</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>id ученика</t>
-        </is>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Максим" sheetId="1" r:id="rId1"/>
     <sheet name="Образец" sheetId="2" r:id="rId2"/>
-    <sheet name="dbdbd 582338838" sheetId="3" r:id="rId3"/>
+    <sheet name="Максиммм" sheetId="3" r:id="rId3"/>
+    <sheet name=" Максиммм" sheetId="4" r:id="rId4"/>
+    <sheet name=" Михаил Абдульманов" sheetId="6" r:id="rId5"/>
+    <sheet name="Михаил Абдульманов" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>Имя родителя</t>
   </si>
@@ -69,6 +72,12 @@
   </si>
   <si>
     <t>999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 582338838</t>
   </si>
 </sst>
 </file>
@@ -571,6 +580,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -614,6 +734,70 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="I2">
+        <v>582338838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,22 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Максим" sheetId="1" r:id="rId1"/>
     <sheet name="Образец" sheetId="2" r:id="rId2"/>
-    <sheet name="Максиммм" sheetId="3" r:id="rId3"/>
-    <sheet name=" Максиммм" sheetId="4" r:id="rId4"/>
-    <sheet name=" Михаил Абдульманов" sheetId="6" r:id="rId5"/>
-    <sheet name="Михаил Абдульманов" sheetId="5" r:id="rId6"/>
+    <sheet name="Михаил Абдульманов" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>Имя родителя</t>
   </si>
@@ -72,12 +69,6 @@
   </si>
   <si>
     <t>999</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 123123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 582338838</t>
   </si>
 </sst>
 </file>
@@ -578,177 +569,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Максим" sheetId="1" r:id="rId1"/>
     <sheet name="Образец" sheetId="2" r:id="rId2"/>
-    <sheet name="Михаил Абдульманов" sheetId="5" r:id="rId3"/>
+    <sheet name="поопопоаоа" sheetId="3" r:id="rId3"/>
+    <sheet name="поопопоаоа1" sheetId="4" r:id="rId4"/>
+    <sheet name="Лпвы" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
   <si>
     <t>Имя родителя</t>
   </si>
@@ -69,6 +71,15 @@
   </si>
   <si>
     <t>999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123222</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123123</t>
+  </si>
+  <si>
+    <t>start</t>
   </si>
 </sst>
 </file>
@@ -431,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -449,7 +460,7 @@
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +488,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -505,6 +519,9 @@
       </c>
       <c r="I2" s="1">
         <v>1737599584</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -515,10 +532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,7 +550,7 @@
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,6 +577,14 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="J2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -569,10 +594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,7 +612,7 @@
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,10 +640,146 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="I2">
-        <v>582338838</v>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,110 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\TgBotForStudents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Максим" sheetId="1" r:id="rId1"/>
-    <sheet name="Образец" sheetId="2" r:id="rId2"/>
-    <sheet name="поопопоаоа" sheetId="3" r:id="rId3"/>
-    <sheet name="поопопоаоа1" sheetId="4" r:id="rId4"/>
-    <sheet name="Лпвы" sheetId="5" r:id="rId5"/>
+    <sheet name="Максим" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Образец" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="поопопоаоа" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="поопопоаоа1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Лпвы" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
-  <si>
-    <t>Имя родителя</t>
-  </si>
-  <si>
-    <t>Номер родителя</t>
-  </si>
-  <si>
-    <t>Номер ученика</t>
-  </si>
-  <si>
-    <t>Дата следующего урока</t>
-  </si>
-  <si>
-    <t>Тема последнего урока</t>
-  </si>
-  <si>
-    <t>Дз</t>
-  </si>
-  <si>
-    <t>Уроков оплачено</t>
-  </si>
-  <si>
-    <t>Уроков прошло</t>
-  </si>
-  <si>
-    <t>id ученика</t>
-  </si>
-  <si>
-    <t>Мама</t>
-  </si>
-  <si>
-    <t>423423</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>pads</t>
-  </si>
-  <si>
-    <t>Фото</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 123222</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 123123</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF6897BB"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <color rgb="FF6897BB"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,25 +57,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -441,215 +434,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col width="13.42578125" customWidth="1" min="1" max="1"/>
+    <col width="15.85546875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="21.140625" customWidth="1" min="4" max="4"/>
+    <col width="19.85546875" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="14.42578125" customWidth="1" min="8" max="8"/>
+    <col width="9.85546875" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Мама</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>423423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>1.1.1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>pads</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Доделать start</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>1737599584</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col width="15.42578125" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="14.42578125" customWidth="1" min="3" max="3"/>
+    <col width="23.140625" customWidth="1" min="4" max="4"/>
+    <col width="22.7109375" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="15.85546875" customWidth="1" min="8" max="8"/>
+    <col width="10.28515625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col width="15.42578125" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="14.42578125" customWidth="1" min="3" max="3"/>
+    <col width="23.140625" customWidth="1" min="4" max="4"/>
+    <col width="22.7109375" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="15.85546875" customWidth="1" min="8" max="8"/>
+    <col width="10.28515625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+    <row r="2">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123222</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -658,63 +716,81 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col width="15.42578125" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="14.42578125" customWidth="1" min="3" max="3"/>
+    <col width="23.140625" customWidth="1" min="4" max="4"/>
+    <col width="22.7109375" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="15.85546875" customWidth="1" min="8" max="8"/>
+    <col width="10.28515625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+    <row r="2">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123222</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -723,63 +799,81 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col width="15.42578125" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="14.42578125" customWidth="1" min="3" max="3"/>
+    <col width="23.140625" customWidth="1" min="4" max="4"/>
+    <col width="22.7109375" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="15.85546875" customWidth="1" min="8" max="8"/>
+    <col width="10.28515625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+    <row r="2">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123123</t>
+        </is>
       </c>
     </row>
   </sheetData>
